--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2460.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2460.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.098511724715735</v>
+        <v>1.663086891174316</v>
       </c>
       <c r="B1">
-        <v>2.467061652543087</v>
+        <v>2.225424289703369</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.240233421325684</v>
       </c>
       <c r="D1">
-        <v>3.081412114956979</v>
+        <v>4.499443531036377</v>
       </c>
       <c r="E1">
-        <v>0.9504707126612659</v>
+        <v>0.6338819265365601</v>
       </c>
     </row>
   </sheetData>
